--- a/社区接口开发进度.xlsx
+++ b/社区接口开发进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>后台</t>
   </si>
@@ -57,7 +57,7 @@
     <t>审核方式设置</t>
   </si>
   <si>
-    <t>业主审核</t>
+    <t>业主审核、业主房屋审核</t>
   </si>
   <si>
     <t>访客审核(根据审核方式)</t>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>通用上传接口</t>
+  </si>
+  <si>
+    <t>业主房屋登记</t>
   </si>
 </sst>
 </file>
@@ -95,12 +98,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,7 +113,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +157,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -133,52 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,74 +255,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -281,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,45 +468,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,22 +486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,157 +524,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,6 +733,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1093,8 +1092,8 @@
   <sheetPr/>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1689,22 +1688,28 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="A1:C12"/>
     <mergeCell ref="F1:G2"/>
     <mergeCell ref="F3:G4"/>
@@ -1740,6 +1745,7 @@
     <mergeCell ref="D23:E31"/>
     <mergeCell ref="A13:C31"/>
     <mergeCell ref="F56:G57"/>
+    <mergeCell ref="F58:G59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/社区接口开发进度.xlsx
+++ b/社区接口开发进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>后台</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>访客审核(根据审核方式)</t>
+  </si>
+  <si>
+    <t>小区旧数据导入导出(excel)</t>
   </si>
   <si>
     <t>业主端</t>
@@ -98,9 +101,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -113,7 +116,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,65 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -194,67 +252,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -277,37 +280,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,6 +370,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,7 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,13 +412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,6 +442,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,79 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,6 +471,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,21 +524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,15 +554,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -553,21 +571,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -576,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,137 +591,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,9 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1090,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:G29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1419,17 +1419,13 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1437,16 +1433,20 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
         <v>17</v>
@@ -1469,7 +1469,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1489,7 +1489,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1509,7 +1509,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1529,7 +1529,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1549,7 +1549,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1569,7 +1569,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1589,7 +1589,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -1609,7 +1609,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -1622,44 +1622,42 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1667,6 +1665,8 @@
       <c r="E55" s="3"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1"/>
@@ -1694,10 +1694,10 @@
       <c r="C58" s="1"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="5"/>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1"/>
@@ -1705,11 +1705,31 @@
       <c r="C59" s="1"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
     <mergeCell ref="A1:C12"/>
     <mergeCell ref="F1:G2"/>
     <mergeCell ref="F3:G4"/>
@@ -1736,16 +1756,17 @@
     <mergeCell ref="F48:G49"/>
     <mergeCell ref="F50:G51"/>
     <mergeCell ref="F52:G53"/>
-    <mergeCell ref="A32:C59"/>
-    <mergeCell ref="D32:E51"/>
-    <mergeCell ref="D52:E59"/>
     <mergeCell ref="F54:G55"/>
     <mergeCell ref="F28:G29"/>
     <mergeCell ref="F30:G31"/>
-    <mergeCell ref="D23:E31"/>
-    <mergeCell ref="A13:C31"/>
     <mergeCell ref="F56:G57"/>
     <mergeCell ref="F58:G59"/>
+    <mergeCell ref="A34:C61"/>
+    <mergeCell ref="D34:E53"/>
+    <mergeCell ref="D54:E61"/>
+    <mergeCell ref="F60:G61"/>
+    <mergeCell ref="A13:C33"/>
+    <mergeCell ref="D23:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/社区接口开发进度.xlsx
+++ b/社区接口开发进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>后台</t>
   </si>
@@ -36,22 +36,25 @@
     <t>已知待补充</t>
   </si>
   <si>
+    <t>人员添加、人员权限</t>
+  </si>
+  <si>
+    <t>物业端</t>
+  </si>
+  <si>
+    <t>轮播图</t>
+  </si>
+  <si>
+    <t>通讯录</t>
+  </si>
+  <si>
+    <t>楼栋房间</t>
+  </si>
+  <si>
+    <t>社区消息</t>
+  </si>
+  <si>
     <t>登录注册、人员权限</t>
-  </si>
-  <si>
-    <t>物业端</t>
-  </si>
-  <si>
-    <t>轮播图</t>
-  </si>
-  <si>
-    <t>通讯录</t>
-  </si>
-  <si>
-    <t>楼栋房间</t>
-  </si>
-  <si>
-    <t>社区消息</t>
   </si>
   <si>
     <t>审核方式设置</t>
@@ -101,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -117,6 +120,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,29 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -199,6 +202,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -208,6 +235,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,37 +256,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -280,6 +283,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -298,36 +457,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,132 +464,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +531,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -551,26 +574,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,145 +582,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,8 +1095,8 @@
   <sheetPr/>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1336,7 +1339,7 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1356,7 +1359,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1385,7 +1388,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1405,7 +1408,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1425,7 +1428,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1440,7 +1443,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1449,7 +1452,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1469,7 +1472,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1529,7 +1532,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1569,7 +1572,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1609,7 +1612,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -1651,7 +1654,7 @@
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="4"/>
@@ -1675,7 +1678,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -1695,7 +1698,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -1715,7 +1718,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G60" s="1"/>
     </row>

--- a/社区接口开发进度.xlsx
+++ b/社区接口开发进度.xlsx
@@ -87,10 +87,10 @@
     <t>访客(随行车辆、人员)</t>
   </si>
   <si>
+    <t>社区定位</t>
+  </si>
+  <si>
     <t>人脸识别(业主登记)</t>
-  </si>
-  <si>
-    <t>社区定位</t>
   </si>
   <si>
     <t>通用上传接口</t>
@@ -240,13 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -256,6 +249,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -283,6 +283,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -295,12 +301,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,25 +361,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,42 +433,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -409,61 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,8 +1095,8 @@
   <sheetPr/>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1649,10 +1649,8 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="1" t="s">
         <v>23</v>
       </c>
@@ -1664,8 +1662,8 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="4"/>
@@ -1675,7 +1673,9 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="1" t="s">
         <v>24</v>
@@ -1765,11 +1765,11 @@
     <mergeCell ref="F56:G57"/>
     <mergeCell ref="F58:G59"/>
     <mergeCell ref="A34:C61"/>
-    <mergeCell ref="D34:E53"/>
-    <mergeCell ref="D54:E61"/>
     <mergeCell ref="F60:G61"/>
     <mergeCell ref="A13:C33"/>
     <mergeCell ref="D23:E33"/>
+    <mergeCell ref="D34:E55"/>
+    <mergeCell ref="D56:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/社区接口开发进度.xlsx
+++ b/社区接口开发进度.xlsx
@@ -54,13 +54,13 @@
     <t>社区消息</t>
   </si>
   <si>
+    <t>业主房屋审核</t>
+  </si>
+  <si>
     <t>登录注册、人员权限</t>
   </si>
   <si>
     <t>审核方式设置</t>
-  </si>
-  <si>
-    <t>业主审核、业主房屋审核</t>
   </si>
   <si>
     <t>访客审核(根据审核方式)</t>
@@ -125,6 +125,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -142,7 +171,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,14 +238,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -172,15 +246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,74 +261,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -283,6 +283,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,25 +355,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,126 +464,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,17 +501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +521,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,25 +561,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,8 +1095,8 @@
   <sheetPr/>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1334,10 +1334,8 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1347,8 +1345,8 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
@@ -1356,7 +1354,9 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1378,7 +1378,9 @@
       <c r="C27" s="1"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -1387,9 +1389,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -1745,9 +1745,6 @@
     <mergeCell ref="F17:G18"/>
     <mergeCell ref="F19:G20"/>
     <mergeCell ref="F21:G22"/>
-    <mergeCell ref="D13:E22"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="F25:G27"/>
     <mergeCell ref="F32:G33"/>
     <mergeCell ref="F34:G35"/>
     <mergeCell ref="F36:G37"/>
@@ -1760,16 +1757,19 @@
     <mergeCell ref="F50:G51"/>
     <mergeCell ref="F52:G53"/>
     <mergeCell ref="F54:G55"/>
-    <mergeCell ref="F28:G29"/>
     <mergeCell ref="F30:G31"/>
     <mergeCell ref="F56:G57"/>
     <mergeCell ref="F58:G59"/>
+    <mergeCell ref="F60:G61"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="F23:G24"/>
     <mergeCell ref="A34:C61"/>
-    <mergeCell ref="F60:G61"/>
-    <mergeCell ref="A13:C33"/>
-    <mergeCell ref="D23:E33"/>
     <mergeCell ref="D34:E55"/>
     <mergeCell ref="D56:E61"/>
+    <mergeCell ref="D25:E33"/>
+    <mergeCell ref="A13:C33"/>
+    <mergeCell ref="D13:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/社区接口开发进度.xlsx
+++ b/社区接口开发进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>后台</t>
   </si>
@@ -27,6 +27,9 @@
     <t>菜单</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>通用内容设置</t>
   </si>
   <si>
@@ -57,7 +60,10 @@
     <t>业主房屋审核</t>
   </si>
   <si>
-    <t>登录注册、人员权限</t>
+    <t>小区旧数据导入导出(excel)</t>
+  </si>
+  <si>
+    <t>导入和解析已完成，数据入库看具体业务随时修改</t>
   </si>
   <si>
     <t>审核方式设置</t>
@@ -66,9 +72,6 @@
     <t>访客审核(根据审核方式)</t>
   </si>
   <si>
-    <t>小区旧数据导入导出(excel)</t>
-  </si>
-  <si>
     <t>业主端</t>
   </si>
   <si>
@@ -90,13 +93,13 @@
     <t>社区定位</t>
   </si>
   <si>
+    <t>业主房屋登记</t>
+  </si>
+  <si>
     <t>人脸识别(业主登记)</t>
   </si>
   <si>
     <t>通用上传接口</t>
-  </si>
-  <si>
-    <t>业主房屋登记</t>
   </si>
 </sst>
 </file>
@@ -125,15 +128,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +167,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -154,31 +182,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,8 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +230,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -230,39 +251,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,12 +280,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFDE11C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,168 +473,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,11 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,21 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,16 +561,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,7 +594,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,137 +603,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +744,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1093,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1104,7 +1116,7 @@
     <col min="7" max="7" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,8 +1130,16 @@
         <v>2</v>
       </c>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1127,6 +1147,12 @@
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1135,7 +1161,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -1155,7 +1181,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1172,12 +1198,12 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -1185,26 +1211,32 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
@@ -1212,32 +1244,30 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1257,7 +1287,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1277,7 +1307,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1297,7 +1327,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1310,18 +1340,26 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1329,15 +1367,23 @@
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1345,8 +1391,8 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
@@ -1354,12 +1400,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1367,8 +1411,8 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -1376,39 +1420,43 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1416,8 +1464,8 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
@@ -1425,10 +1473,10 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1436,23 +1484,19 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1472,7 +1516,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1492,7 +1536,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1512,7 +1556,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1532,7 +1576,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1552,7 +1596,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1572,7 +1616,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1592,7 +1636,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -1605,18 +1649,20 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1624,19 +1670,23 @@
       <c r="E51" s="2"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1644,41 +1694,39 @@
       <c r="E53" s="2"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="4"/>
       <c r="F54" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -1686,67 +1734,20 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A1:C12"/>
+  <mergeCells count="39">
     <mergeCell ref="F1:G2"/>
     <mergeCell ref="F3:G4"/>
     <mergeCell ref="F5:G6"/>
     <mergeCell ref="D1:E6"/>
-    <mergeCell ref="D7:E12"/>
-    <mergeCell ref="F7:G12"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="F15:G16"/>
     <mergeCell ref="F17:G18"/>
     <mergeCell ref="F19:G20"/>
     <mergeCell ref="F21:G22"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="F34:G35"/>
     <mergeCell ref="F36:G37"/>
     <mergeCell ref="F38:G39"/>
     <mergeCell ref="F40:G41"/>
@@ -1757,19 +1758,28 @@
     <mergeCell ref="F50:G51"/>
     <mergeCell ref="F52:G53"/>
     <mergeCell ref="F54:G55"/>
+    <mergeCell ref="F56:G57"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="H1:M2"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="F34:G35"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="F28:G29"/>
     <mergeCell ref="F30:G31"/>
-    <mergeCell ref="F56:G57"/>
-    <mergeCell ref="F58:G59"/>
-    <mergeCell ref="F60:G61"/>
-    <mergeCell ref="F25:G26"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="A34:C61"/>
-    <mergeCell ref="D34:E55"/>
-    <mergeCell ref="D56:E61"/>
-    <mergeCell ref="D25:E33"/>
-    <mergeCell ref="A13:C33"/>
-    <mergeCell ref="D13:E24"/>
+    <mergeCell ref="F25:G27"/>
+    <mergeCell ref="D9:E22"/>
+    <mergeCell ref="A30:C57"/>
+    <mergeCell ref="D30:E53"/>
+    <mergeCell ref="D54:E57"/>
+    <mergeCell ref="D23:E29"/>
+    <mergeCell ref="A9:C29"/>
+    <mergeCell ref="H21:M22"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="A1:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
